--- a/Bibsam_tidskriftslistor/scifree_data_aps_fullyoa.xlsx
+++ b/Bibsam_tidskriftslistor/scifree_data_aps_fullyoa.xlsx
@@ -1,25 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://chalmers-my.sharepoint.com/personal/larher_chalmers_se/Documents/Documents/GitHub/oa-tskr/Bibsam_tidskriftslistor/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="32" documentId="8_{9F545344-DB48-4786-94FB-1716F4C7D45A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D8AC471-3092-479B-A219-8369F170F960}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AC899382-37CD-4D49-A833-9903796602C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
+  <si>
+    <t>Imprint</t>
+  </si>
   <si>
     <t>ISSN Electronic</t>
   </si>
@@ -39,87 +59,77 @@
     <t>CC License options</t>
   </si>
   <si>
-    <t>Imprint</t>
-  </si>
-  <si>
     <t>American Physical Society</t>
   </si>
   <si>
+    <t>2160-3308</t>
+  </si>
+  <si>
+    <t>Physical Review X</t>
+  </si>
+  <si>
+    <t>https://journals.aps.org/prx</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
     <t>CC-BY</t>
   </si>
   <si>
-    <t>Physical Review X</t>
-  </si>
-  <si>
-    <t>2160-3308</t>
+    <t>2469-9896</t>
   </si>
   <si>
     <t>Physical Review Physics Education Research</t>
   </si>
   <si>
-    <t>2469-9896</t>
+    <t>https://journals.aps.org/prper</t>
+  </si>
+  <si>
+    <t>2643-1564</t>
   </si>
   <si>
     <t>Physical Review Research</t>
   </si>
   <si>
-    <t>2643-1564</t>
+    <t>https://journals.aps.org/prresearch</t>
+  </si>
+  <si>
+    <t>2691-3399</t>
   </si>
   <si>
     <t>Physical Review X Quantum</t>
   </si>
   <si>
-    <t>2691-3399</t>
+    <t>https://journals.aps.org/prxquantum</t>
+  </si>
+  <si>
+    <t>2768-5608</t>
   </si>
   <si>
     <t>Physical Review X Energy</t>
   </si>
   <si>
-    <t>2768-5608</t>
-  </si>
-  <si>
-    <t>Open</t>
-  </si>
-  <si>
-    <t>https://journals.aps.org/prx</t>
-  </si>
-  <si>
-    <t>https://journals.aps.org/prper</t>
-  </si>
-  <si>
-    <t>https://journals.aps.org/prresearch</t>
-  </si>
-  <si>
-    <t>https://journals.aps.org/prxquantum</t>
-  </si>
-  <si>
     <t>https://journals.aps.org/prxenergy/</t>
+  </si>
+  <si>
+    <t>2835-8279</t>
+  </si>
+  <si>
+    <t>Physical Review X Life</t>
+  </si>
+  <si>
+    <t>https://journals.aps.org/prxlife/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -142,17 +152,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -166,6 +172,25 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F8757BE-BE7A-49CA-8607-269A0F7885B5}" name="Table1" displayName="Table1" ref="A1:G7" totalsRowShown="0">
+  <autoFilter ref="A1:G7" xr:uid="{1F8757BE-BE7A-49CA-8607-269A0F7885B5}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G7">
+    <sortCondition ref="D1:D7"/>
+  </sortState>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{9BB6CC0D-EDDC-4C12-9332-D0B77473120C}" name="Imprint"/>
+    <tableColumn id="2" xr3:uid="{2F509989-D2B1-4507-B78A-7CD77A78C972}" name="ISSN Electronic"/>
+    <tableColumn id="3" xr3:uid="{B068547E-E86D-4480-B351-FFB2E133A751}" name="ISSN Print"/>
+    <tableColumn id="4" xr3:uid="{A19A33E7-A5A4-4179-960F-2196C603921C}" name="Journal Name"/>
+    <tableColumn id="5" xr3:uid="{122B6AC7-D511-4AB1-9920-7A4B4A87D2A2}" name="JournalURL"/>
+    <tableColumn id="6" xr3:uid="{24A28A17-DE63-422C-B9B7-40E2E408881F}" name="Publishing model"/>
+    <tableColumn id="7" xr3:uid="{A08DA275-3B3C-42FB-AE7E-AFBCBAEFBC37}" name="CC License options"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -185,7 +210,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -197,7 +222,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -244,6 +269,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -279,6 +321,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -430,41 +489,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5678D85A-1096-4BE8-B146-76EBC03D1CA8}">
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="28.5703125" customWidth="1"/>
-    <col min="5" max="5" width="25.5703125" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" customWidth="1"/>
+    <col min="1" max="1" width="29.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="28.140625" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -472,19 +535,19 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -492,19 +555,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
         <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -512,19 +575,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -532,19 +595,19 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -552,44 +615,45 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
         <v>19</v>
       </c>
-      <c r="G6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C16" s="2"/>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>